--- a/data/washington/da_sampling/tables/TableSX_biotoxins and_threshholds.xlsx
+++ b/data/washington/da_sampling/tables/TableSX_biotoxins and_threshholds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/data/washington/da_sampling/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993FBEA3-1D54-0947-94FD-644ED3CCB1EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F07673-CA56-F145-8A10-C89090A0197B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23560" yWindow="7200" windowWidth="27640" windowHeight="16940" xr2:uid="{1C991B73-9345-3A41-9E40-4F5DD6C9F0C4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{1C991B73-9345-3A41-9E40-4F5DD6C9F0C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t xml:space="preserve">1 ug/100 g </t>
   </si>
   <si>
-    <t>Many species of phytoplankton</t>
-  </si>
-  <si>
     <t>Detection limit</t>
   </si>
   <si>
@@ -113,6 +110,29 @@
   </si>
   <si>
     <t>80 ug/100 g</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Alexandrium </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spp. (dinoflagellate)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -503,13 +523,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -522,15 +542,15 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -544,30 +564,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
